--- a/data/pad_need.xlsx
+++ b/data/pad_need.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeterTing/Google Drive/AED/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF6A867F-159A-614D-9064-E380623645F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D2A863F-B17F-864D-A654-EA4B50748E67}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="7940" xr2:uid="{777C057E-BA99-4928-85F2-B2E2DF7397E3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="14620" xr2:uid="{777C057E-BA99-4928-85F2-B2E2DF7397E3}"/>
   </bookViews>
   <sheets>
     <sheet name="pad" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="736">
   <si>
     <t>場所類型</t>
   </si>
@@ -1345,6 +1345,900 @@
   <si>
     <t>直轄市、縣(市)政府主管之風景區</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>場所名稱</t>
+  </si>
+  <si>
+    <t>最高法院第二辦公室寶慶院區</t>
+  </si>
+  <si>
+    <t>遠東百貨股份有限公司台北分公司</t>
+  </si>
+  <si>
+    <t>交通部臺灣鐵路管理局臺北運務段臺北站</t>
+  </si>
+  <si>
+    <t>香港商世界健身事業有限公司台北分公司</t>
+  </si>
+  <si>
+    <t>臺北自來水園區</t>
+  </si>
+  <si>
+    <t>臺北市政府消防局城中分隊</t>
+  </si>
+  <si>
+    <t>立法院委員研究大樓</t>
+  </si>
+  <si>
+    <t>誠品站前店（台北車站K區地下街）</t>
+  </si>
+  <si>
+    <t>臺灣臺北地方法院</t>
+  </si>
+  <si>
+    <t>立法院青島會館一館</t>
+  </si>
+  <si>
+    <t>立法院青島會館二館</t>
+  </si>
+  <si>
+    <t>立法院青島會館三館</t>
+  </si>
+  <si>
+    <t>臺北捷運西門站BL11</t>
+  </si>
+  <si>
+    <t>臺北捷運台電大樓站G08</t>
+  </si>
+  <si>
+    <t>臺北捷運臺大醫院站R09</t>
+  </si>
+  <si>
+    <t>臺北捷運小南門站G11</t>
+  </si>
+  <si>
+    <t>教育部第三辦公室</t>
+  </si>
+  <si>
+    <t>臺北市中正區健康服務中心</t>
+  </si>
+  <si>
+    <t>光點華山電影館</t>
+  </si>
+  <si>
+    <t>保證責任臺北市台北地下街場地利用合作社</t>
+  </si>
+  <si>
+    <t>臺北自來水園區環境教育中心</t>
+  </si>
+  <si>
+    <t>南機場臨時攤販集中場</t>
+  </si>
+  <si>
+    <t>洛德城堡親水體驗教育區</t>
+  </si>
+  <si>
+    <t>財團法人國家實驗研究院台灣颱風洪水研究中心(台北辦公室)</t>
+  </si>
+  <si>
+    <t>台北喜來登大飯店</t>
+  </si>
+  <si>
+    <t>國光汽車客運股份有限公司台北西站A棟</t>
+  </si>
+  <si>
+    <t>台灣人壽保險股份有限公司台北分公司</t>
+  </si>
+  <si>
+    <t>Curves女性專用30分鐘健身中心忠孝新生店</t>
+  </si>
+  <si>
+    <t>華山1914文化創意產業園區</t>
+  </si>
+  <si>
+    <t>臺北市青少年發展處</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局中正第一分局忠孝西路派出所</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局交通警察大隊</t>
+  </si>
+  <si>
+    <t>憲兵202指揮部中華營區</t>
+  </si>
+  <si>
+    <t>憲兵211營寶慶營區</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局中正第一分局博愛路派出所</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局中正第二分局南海路派出所</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局中正第二分局南昌路派出所</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局中正第二分局思源街派出所</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局中正第二分局泉州街派出所</t>
+  </si>
+  <si>
+    <t>社團法人中華民國軍人之友社台北國軍英雄館</t>
+  </si>
+  <si>
+    <t>中華民國紅十字會臺灣省分會</t>
+  </si>
+  <si>
+    <t>臺北市水源劇場</t>
+  </si>
+  <si>
+    <t>臺北市影視音實驗教育機構</t>
+  </si>
+  <si>
+    <t>愛客發有限公司開封館</t>
+  </si>
+  <si>
+    <t>台北市成功高中運動中心</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局中正第一分局介壽路派出所</t>
+  </si>
+  <si>
+    <t>臺北市稅捐稽徵處</t>
+  </si>
+  <si>
+    <t>國家表演藝術中心國家兩廳院</t>
+  </si>
+  <si>
+    <t>臺北市中正運動中心</t>
+  </si>
+  <si>
+    <t>永豐證券投資信託股份有限公司</t>
+  </si>
+  <si>
+    <t>財團法人台灣文學發展基金會臺北市紀州庵新館</t>
+  </si>
+  <si>
+    <t>臺北捷運古亭站G09</t>
+  </si>
+  <si>
+    <t>臺北捷運忠孝新生站BL14</t>
+  </si>
+  <si>
+    <t>台灣高速鐵路(股)公司-台北車站</t>
+  </si>
+  <si>
+    <t>立法院群賢樓</t>
+  </si>
+  <si>
+    <t>教育部忠孝東路一段172號大樓</t>
+  </si>
+  <si>
+    <t>立法院委員研究大樓6樓</t>
+  </si>
+  <si>
+    <t>立法院鎮江會館</t>
+  </si>
+  <si>
+    <t>國立台灣大學-醫學校區</t>
+  </si>
+  <si>
+    <t>東吳大學〈城中校區〉</t>
+  </si>
+  <si>
+    <t>禮客時尚館 公館店</t>
+  </si>
+  <si>
+    <t>新光人壽股份有限公司</t>
+  </si>
+  <si>
+    <t>台糖台北會館</t>
+  </si>
+  <si>
+    <t>台北市立建國高級中學</t>
+  </si>
+  <si>
+    <t>國立中正紀念堂</t>
+  </si>
+  <si>
+    <t>國立臺灣藝術教育館-南海書院</t>
+  </si>
+  <si>
+    <t>臺北市立大學博愛校區</t>
+  </si>
+  <si>
+    <t>臺北市私立強恕高中</t>
+  </si>
+  <si>
+    <t>臺北市政府衛生局社區心理衛生中心</t>
+  </si>
+  <si>
+    <t>全真健身中心古亭店</t>
+  </si>
+  <si>
+    <t>醫療財團法人好心肝基金會好心肝診所</t>
+  </si>
+  <si>
+    <t>國立臺灣工藝研究發展中心臺北當代工藝設計分館</t>
+  </si>
+  <si>
+    <t>臺北市立螢橋國中</t>
+  </si>
+  <si>
+    <t>臺北市立古亭國中</t>
+  </si>
+  <si>
+    <t>新光人壽保險股份有限公司</t>
+  </si>
+  <si>
+    <t>臺北市立大學附設實驗國民小學</t>
+  </si>
+  <si>
+    <t>Curves女性專用30分鐘健身中心古亭店</t>
+  </si>
+  <si>
+    <t>臺北市私立南華高中</t>
+  </si>
+  <si>
+    <t>台北凱撒大飯店</t>
+  </si>
+  <si>
+    <t>保證責任臺北市站前地下街場地利用合作社</t>
+  </si>
+  <si>
+    <t>國立歷史博物館</t>
+  </si>
+  <si>
+    <t>國立臺灣藝術教育館-南海劇場</t>
+  </si>
+  <si>
+    <t>國家圖書館</t>
+  </si>
+  <si>
+    <t>立法院議場</t>
+  </si>
+  <si>
+    <t>教育部</t>
+  </si>
+  <si>
+    <t>誠品臺大醫院店</t>
+  </si>
+  <si>
+    <t>教育部第二辦公室</t>
+  </si>
+  <si>
+    <t>二二八和平公園</t>
+  </si>
+  <si>
+    <t>中國文化大學推廣教育部 大新館</t>
+  </si>
+  <si>
+    <t>台北市私立開南高級商工職業學校</t>
+  </si>
+  <si>
+    <t>臺北捷運淡南段辦</t>
+  </si>
+  <si>
+    <t>臺北市中正區東門國民小學</t>
+  </si>
+  <si>
+    <t>臺北市中正區忠義國民小學</t>
+  </si>
+  <si>
+    <t>臺灣菸酒股份有限公司</t>
+  </si>
+  <si>
+    <t>南海開發大樓</t>
+  </si>
+  <si>
+    <t>內政部</t>
+  </si>
+  <si>
+    <t>台北市國語實驗國民小學</t>
+  </si>
+  <si>
+    <t>中國文化大學推廣教育部 忠孝分部</t>
+  </si>
+  <si>
+    <t>臺北捷運台北車站BL12</t>
+  </si>
+  <si>
+    <t>台北市中正運動中心</t>
+  </si>
+  <si>
+    <t>誠品書店劇場店</t>
+  </si>
+  <si>
+    <t>三軍總醫院汀州院區</t>
+  </si>
+  <si>
+    <t>光華數位新天地</t>
+  </si>
+  <si>
+    <t>南機場樂活園地</t>
+  </si>
+  <si>
+    <t>監察院</t>
+  </si>
+  <si>
+    <t>國泰商旅和逸台北忠孝館</t>
+  </si>
+  <si>
+    <t>香港商世界健身事業有限公司公館分公司</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局交通警察大隊直屬第三分隊</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局中正第一分局忠孝東路派出所</t>
+  </si>
+  <si>
+    <t>Curves女性專用30分鐘健身中心台大公館店</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局中正第一分局仁愛路派出所</t>
+  </si>
+  <si>
+    <t>國光汽車客運股份有限公司台北西站B棟</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局</t>
+  </si>
+  <si>
+    <t>臺北市立青少年育樂中心</t>
+  </si>
+  <si>
+    <t>衛生福利部中央健康保險署臺北業務組</t>
+  </si>
+  <si>
+    <t>國立教育廣播電臺</t>
+  </si>
+  <si>
+    <t>行政院</t>
+  </si>
+  <si>
+    <t>臺灣臺北地方法院寶慶院區</t>
+  </si>
+  <si>
+    <t>立法院醫務室</t>
+  </si>
+  <si>
+    <t>臺北市中正區公所</t>
+  </si>
+  <si>
+    <t>國立中正紀念堂管理處</t>
+  </si>
+  <si>
+    <t>臺北捷運台北車站R10</t>
+  </si>
+  <si>
+    <t>臺北捷運中正紀念堂站R08</t>
+  </si>
+  <si>
+    <t>內政部移民署台北市服務站</t>
+  </si>
+  <si>
+    <t>中華電信數據通信分公司</t>
+  </si>
+  <si>
+    <t>水源市場</t>
+  </si>
+  <si>
+    <t>寶藏巖國際藝術村</t>
+  </si>
+  <si>
+    <t>台北二二八紀念館</t>
+  </si>
+  <si>
+    <t>臺北市客家文化主題公園</t>
+  </si>
+  <si>
+    <t>新光三越台北站前店</t>
+  </si>
+  <si>
+    <t>最高行政法院</t>
+  </si>
+  <si>
+    <t>國立交通大學台北分部</t>
+  </si>
+  <si>
+    <t>立法院委員研究大樓12樓</t>
+  </si>
+  <si>
+    <t>立法院 北側門口</t>
+  </si>
+  <si>
+    <t>微風台大醫院</t>
+  </si>
+  <si>
+    <t>東南亞秀泰影城</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局交通警察大隊中正第一交通分隊</t>
+  </si>
+  <si>
+    <t>北都汽車股份有限公司-中正廠</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局交通警察大隊中正第二分隊</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局中正第二分局廈門街派出所</t>
+  </si>
+  <si>
+    <t>臺北市政府警察局刑事警察大隊</t>
+  </si>
+  <si>
+    <t>微風台北車站</t>
+  </si>
+  <si>
+    <t>台北市河濱自行車租借站景福站</t>
+  </si>
+  <si>
+    <t>臺北市公有華山市場</t>
+  </si>
+  <si>
+    <t>臺北捷運善導寺站BL13</t>
+  </si>
+  <si>
+    <t>臺北市中山堂管理所</t>
+  </si>
+  <si>
+    <t>台北市立第一女子高級中學</t>
+  </si>
+  <si>
+    <t>立法院 東側門</t>
+  </si>
+  <si>
+    <t>臺北市中正區戶政事務所</t>
+  </si>
+  <si>
+    <t>立法院警察宿舍</t>
+  </si>
+  <si>
+    <t>國立台北商業大學</t>
+  </si>
+  <si>
+    <t>臺北市立成功高級中學</t>
+  </si>
+  <si>
+    <t>場所地址</t>
+  </si>
+  <si>
+    <t>長沙街一段27號</t>
+  </si>
+  <si>
+    <t>寶慶路32號</t>
+  </si>
+  <si>
+    <t>北平西路3號</t>
+  </si>
+  <si>
+    <t>忠孝西路1段50號6樓、6樓之一</t>
+  </si>
+  <si>
+    <t>思源街1號</t>
+  </si>
+  <si>
+    <t>忠孝西路1段86號</t>
+  </si>
+  <si>
+    <t>台北市濟南路1段3之1號</t>
+  </si>
+  <si>
+    <t>忠孝西路1段47號B1F</t>
+  </si>
+  <si>
+    <t>博愛路131號</t>
+  </si>
+  <si>
+    <t>青島東路1號</t>
+  </si>
+  <si>
+    <t>青島東路10號</t>
+  </si>
+  <si>
+    <t>青島東路1-3號</t>
+  </si>
+  <si>
+    <t>寶慶路32之1號</t>
+  </si>
+  <si>
+    <t>羅斯福3段126之5號</t>
+  </si>
+  <si>
+    <t>公園路52號</t>
+  </si>
+  <si>
+    <t>愛國西路22號</t>
+  </si>
+  <si>
+    <t>徐州路48-1號</t>
+  </si>
+  <si>
+    <t>牯嶺街24號</t>
+  </si>
+  <si>
+    <t>八德路1段1號(中六電影館)</t>
+  </si>
+  <si>
+    <t>市民大道一段100號B1</t>
+  </si>
+  <si>
+    <t>中正區中華路2段307巷至315巷間易牙巷</t>
+  </si>
+  <si>
+    <t>汀州路三段160巷底</t>
+  </si>
+  <si>
+    <t>羅斯福路1段91號11樓</t>
+  </si>
+  <si>
+    <t>忠孝東路1段12號</t>
+  </si>
+  <si>
+    <t>忠孝西路1段171號1樓</t>
+  </si>
+  <si>
+    <t>許昌街17號16樓</t>
+  </si>
+  <si>
+    <t>新生南路1段60號3樓</t>
+  </si>
+  <si>
+    <t>八德路一段一號</t>
+  </si>
+  <si>
+    <t>仁愛路一段17號</t>
+  </si>
+  <si>
+    <t>公園路15號</t>
+  </si>
+  <si>
+    <t>愛國西路26號</t>
+  </si>
+  <si>
+    <t>中華路一段65號</t>
+  </si>
+  <si>
+    <t>台北市博愛路123號</t>
+  </si>
+  <si>
+    <t>博愛路119號</t>
+  </si>
+  <si>
+    <t>南海路35號</t>
+  </si>
+  <si>
+    <t>南昌路1段7號</t>
+  </si>
+  <si>
+    <t>汀州路三段72號</t>
+  </si>
+  <si>
+    <t>中華路二段503號</t>
+  </si>
+  <si>
+    <t>台北市長沙街1段20號</t>
+  </si>
+  <si>
+    <t>博愛路230巷6號</t>
+  </si>
+  <si>
+    <t>羅斯福路四段92號10樓</t>
+  </si>
+  <si>
+    <t>仁愛路1段17號</t>
+  </si>
+  <si>
+    <t>汀州路三段230巷18弄5-2號</t>
+  </si>
+  <si>
+    <t>開封街一段33號</t>
+  </si>
+  <si>
+    <t>濟南路一段71號</t>
+  </si>
+  <si>
+    <t>公園路54號</t>
+  </si>
+  <si>
+    <t>北平東路7之2號</t>
+  </si>
+  <si>
+    <t>中山南路21-1號</t>
+  </si>
+  <si>
+    <t>信義路一段1號</t>
+  </si>
+  <si>
+    <t>博愛路17號13樓</t>
+  </si>
+  <si>
+    <t>同安街107號</t>
+  </si>
+  <si>
+    <t>羅斯福路2段164-1號</t>
+  </si>
+  <si>
+    <t>新生南路1段67號B1</t>
+  </si>
+  <si>
+    <t>濟南路一段1號</t>
+  </si>
+  <si>
+    <t>忠孝東路一段172號</t>
+  </si>
+  <si>
+    <t>台北市中正區濟南路一段3-1號</t>
+  </si>
+  <si>
+    <t>鎮江街2號</t>
+  </si>
+  <si>
+    <t>仁愛路1段1號</t>
+  </si>
+  <si>
+    <t>貴陽街1段56號</t>
+  </si>
+  <si>
+    <t>思源街16號1F</t>
+  </si>
+  <si>
+    <t>忠孝西路一段66號</t>
+  </si>
+  <si>
+    <t>光復里中華路一段39號</t>
+  </si>
+  <si>
+    <t>南海路56號</t>
+  </si>
+  <si>
+    <t>中山南路21號</t>
+  </si>
+  <si>
+    <t>南海路43號</t>
+  </si>
+  <si>
+    <t>愛國西路1號</t>
+  </si>
+  <si>
+    <t>汀州路2段143號</t>
+  </si>
+  <si>
+    <t>金山南路一段5號</t>
+  </si>
+  <si>
+    <t>和平西路一段2號</t>
+  </si>
+  <si>
+    <t>公園路30號2樓之2</t>
+  </si>
+  <si>
+    <t>台北市南海路41號</t>
+  </si>
+  <si>
+    <t>汀州路三段4號</t>
+  </si>
+  <si>
+    <t>中華路二段465號</t>
+  </si>
+  <si>
+    <t>公園路29號</t>
+  </si>
+  <si>
+    <t>羅斯福路二段116號3樓之1</t>
+  </si>
+  <si>
+    <t>汀州路三段58號</t>
+  </si>
+  <si>
+    <t>忠孝西路1段38號</t>
+  </si>
+  <si>
+    <t>忠孝西路1段50-1號 B1</t>
+  </si>
+  <si>
+    <t>市民大道1段100號B1</t>
+  </si>
+  <si>
+    <t>南海路49號</t>
+  </si>
+  <si>
+    <t>南海路47號</t>
+  </si>
+  <si>
+    <t>中山南路20號</t>
+  </si>
+  <si>
+    <t>台北市中正區中山南路1號</t>
+  </si>
+  <si>
+    <t>中山南路5號</t>
+  </si>
+  <si>
+    <t>中山南路7號B1</t>
+  </si>
+  <si>
+    <t>忠孝東路1段172號</t>
+  </si>
+  <si>
+    <t>懷寧街103號</t>
+  </si>
+  <si>
+    <t>延平南路127號一樓</t>
+  </si>
+  <si>
+    <t>濟南路一段6號</t>
+  </si>
+  <si>
+    <t>忠孝西路一段49號</t>
+  </si>
+  <si>
+    <t>仁愛路一段2-4號</t>
+  </si>
+  <si>
+    <t>中華路二段307巷17號</t>
+  </si>
+  <si>
+    <t>南昌路1段四號</t>
+  </si>
+  <si>
+    <t>南海路20號</t>
+  </si>
+  <si>
+    <t>徐州路5號</t>
+  </si>
+  <si>
+    <t>南海路58號</t>
+  </si>
+  <si>
+    <t>忠孝東路1段41號1樓</t>
+  </si>
+  <si>
+    <t>忠孝西路1段49號</t>
+  </si>
+  <si>
+    <t>信義路1段1號</t>
+  </si>
+  <si>
+    <t>中山南路1號</t>
+  </si>
+  <si>
+    <t>汀州路三段40號</t>
+  </si>
+  <si>
+    <t>市民大道三段8號</t>
+  </si>
+  <si>
+    <t>中華路二段315巷16、18號</t>
+  </si>
+  <si>
+    <t>南海路41號</t>
+  </si>
+  <si>
+    <t>忠孝東路一段2號</t>
+  </si>
+  <si>
+    <t>忠孝東路一段31號</t>
+  </si>
+  <si>
+    <t>羅斯福路四段68號2F</t>
+  </si>
+  <si>
+    <t>泉州街40號10樓</t>
+  </si>
+  <si>
+    <t>忠孝東路二段10號</t>
+  </si>
+  <si>
+    <t>羅斯福路4段64號4樓</t>
+  </si>
+  <si>
+    <t>仁愛路1段19號</t>
+  </si>
+  <si>
+    <t>忠孝西路1段173號1樓</t>
+  </si>
+  <si>
+    <t>延平南路96號</t>
+  </si>
+  <si>
+    <t>公園路15之1號5樓</t>
+  </si>
+  <si>
+    <t>南海路45號</t>
+  </si>
+  <si>
+    <t>忠孝東路一段1號</t>
+  </si>
+  <si>
+    <t>羅斯福路1段8號6樓</t>
+  </si>
+  <si>
+    <t>中正區羅斯福路1段8-1號</t>
+  </si>
+  <si>
+    <t>廣州街15號</t>
+  </si>
+  <si>
+    <t>信義路1段21號</t>
+  </si>
+  <si>
+    <t>市民大道一段100號B1行政中心</t>
+  </si>
+  <si>
+    <t>羅斯福路4段92號</t>
+  </si>
+  <si>
+    <t>汀洲路3段230巷14弄2號</t>
+  </si>
+  <si>
+    <t>凱達格蘭大道3號</t>
+  </si>
+  <si>
+    <t>汀州路3段2號</t>
+  </si>
+  <si>
+    <t>忠孝西路1段66號8F</t>
+  </si>
+  <si>
+    <t>重慶南路1段126巷1號</t>
+  </si>
+  <si>
+    <t>忠孝西路1段118號</t>
+  </si>
+  <si>
+    <t>羅斯福路4段136巷3號</t>
+  </si>
+  <si>
+    <t>北平東路1號</t>
+  </si>
+  <si>
+    <t>忠孝東路2段122號</t>
+  </si>
+  <si>
+    <t>泉州街40號8樓</t>
+  </si>
+  <si>
+    <t>廈門街43號</t>
+  </si>
+  <si>
+    <t>武昌街一段69號</t>
+  </si>
+  <si>
+    <t>北平西路3號2樓</t>
+  </si>
+  <si>
+    <t>自來水園區公館水岸廣場上(思源路底)永福橋旁</t>
+  </si>
+  <si>
+    <t>忠孝東路1段108號</t>
+  </si>
+  <si>
+    <t>忠孝東路1段58號B1</t>
+  </si>
+  <si>
+    <t>延平南路98號</t>
+  </si>
+  <si>
+    <t>重慶南路一段165號</t>
+  </si>
+  <si>
+    <t>羅斯福路1段8號4樓</t>
+  </si>
+  <si>
+    <t>羅斯福路一段119巷7號</t>
+  </si>
+  <si>
+    <t>濟南路1段321號</t>
+  </si>
+  <si>
+    <t>濟南路1段71號</t>
   </si>
 </sst>
 </file>
@@ -1409,13 +2303,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1730,18 +2626,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE3AE2E-8EDB-418E-A82E-9C4D3787D7C3}">
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="9" width="9" style="2"/>
+    <col min="10" max="11" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1769,8 +2666,14 @@
       <c r="I1" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1798,8 +2701,14 @@
       <c r="I2" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1827,8 +2736,14 @@
       <c r="I3" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1856,8 +2771,14 @@
       <c r="I4" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1885,8 +2806,14 @@
       <c r="I5" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1914,8 +2841,14 @@
       <c r="I6" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2876,14 @@
       <c r="I7" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1972,8 +2911,14 @@
       <c r="I8" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2001,8 +2946,14 @@
       <c r="I9" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2030,8 +2981,14 @@
       <c r="I10" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2059,8 +3016,14 @@
       <c r="I11" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2088,8 +3051,14 @@
       <c r="I12" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2117,8 +3086,14 @@
       <c r="I13" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2146,8 +3121,14 @@
       <c r="I14" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2175,8 +3156,14 @@
       <c r="I15" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2204,8 +3191,14 @@
       <c r="I16" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -2233,8 +3226,14 @@
       <c r="I17" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -2262,8 +3261,14 @@
       <c r="I18" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2291,8 +3296,14 @@
       <c r="I19" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2320,8 +3331,14 @@
       <c r="I20" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2349,8 +3366,14 @@
       <c r="I21" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2378,8 +3401,14 @@
       <c r="I22" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -2407,8 +3436,14 @@
       <c r="I23" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>437</v>
       </c>
@@ -2436,8 +3471,14 @@
       <c r="I24" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -2465,8 +3506,14 @@
       <c r="I25" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2494,8 +3541,14 @@
       <c r="I26" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2523,8 +3576,14 @@
       <c r="I27" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2552,8 +3611,14 @@
       <c r="I28" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -2581,8 +3646,14 @@
       <c r="I29" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2610,8 +3681,14 @@
       <c r="I30" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -2639,8 +3716,14 @@
       <c r="I31" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -2668,8 +3751,14 @@
       <c r="I32" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2697,8 +3786,14 @@
       <c r="I33" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -2726,8 +3821,14 @@
       <c r="I34" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -2755,8 +3856,14 @@
       <c r="I35" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -2784,8 +3891,14 @@
       <c r="I36" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -2813,8 +3926,14 @@
       <c r="I37" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -2842,8 +3961,14 @@
       <c r="I38" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
@@ -2871,8 +3996,14 @@
       <c r="I39" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -2900,8 +4031,14 @@
       <c r="I40" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -2929,8 +4066,14 @@
       <c r="I41" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -2958,8 +4101,14 @@
       <c r="I42" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -2987,8 +4136,14 @@
       <c r="I43" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -3016,8 +4171,14 @@
       <c r="I44" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
@@ -3045,8 +4206,14 @@
       <c r="I45" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -3074,8 +4241,14 @@
       <c r="I46" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -3103,8 +4276,14 @@
       <c r="I47" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -3132,8 +4311,14 @@
       <c r="I48" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
@@ -3161,8 +4346,14 @@
       <c r="I49" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -3190,8 +4381,14 @@
       <c r="I50" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -3219,8 +4416,14 @@
       <c r="I51" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -3248,8 +4451,14 @@
       <c r="I52" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -3277,8 +4486,14 @@
       <c r="I53" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -3306,8 +4521,14 @@
       <c r="I54" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -3335,8 +4556,14 @@
       <c r="I55" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -3364,8 +4591,14 @@
       <c r="I56" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -3393,8 +4626,14 @@
       <c r="I57" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -3422,8 +4661,14 @@
       <c r="I58" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -3451,8 +4696,14 @@
       <c r="I59" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -3480,8 +4731,14 @@
       <c r="I60" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -3509,8 +4766,14 @@
       <c r="I61" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -3538,8 +4801,14 @@
       <c r="I62" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -3567,8 +4836,14 @@
       <c r="I63" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -3596,8 +4871,14 @@
       <c r="I64" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -3625,8 +4906,14 @@
       <c r="I65" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>18</v>
       </c>
@@ -3654,8 +4941,14 @@
       <c r="I66" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -3683,8 +4976,14 @@
       <c r="I67" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
@@ -3712,8 +5011,14 @@
       <c r="I68" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -3741,8 +5046,14 @@
       <c r="I69" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -3770,8 +5081,14 @@
       <c r="I70" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -3799,8 +5116,14 @@
       <c r="I71" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
         <v>20</v>
       </c>
@@ -3828,8 +5151,14 @@
       <c r="I72" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
@@ -3857,8 +5186,14 @@
       <c r="I73" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -3886,8 +5221,14 @@
       <c r="I74" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
@@ -3915,8 +5256,14 @@
       <c r="I75" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
         <v>17</v>
       </c>
@@ -3944,8 +5291,14 @@
       <c r="I76" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
@@ -3973,8 +5326,14 @@
       <c r="I77" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -4002,8 +5361,14 @@
       <c r="I78" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
         <v>20</v>
       </c>
@@ -4031,8 +5396,14 @@
       <c r="I79" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
@@ -4060,8 +5431,14 @@
       <c r="I80" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -4089,8 +5466,14 @@
       <c r="I81" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
@@ -4118,8 +5501,14 @@
       <c r="I82" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -4147,8 +5536,14 @@
       <c r="I83" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -4176,8 +5571,14 @@
       <c r="I84" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
@@ -4205,8 +5606,14 @@
       <c r="I85" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
         <v>23</v>
       </c>
@@ -4234,8 +5641,14 @@
       <c r="I86" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
         <v>23</v>
       </c>
@@ -4263,8 +5676,14 @@
       <c r="I87" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
@@ -4292,8 +5711,14 @@
       <c r="I88" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
         <v>24</v>
       </c>
@@ -4321,8 +5746,14 @@
       <c r="I89" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -4350,8 +5781,14 @@
       <c r="I90" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
@@ -4379,8 +5816,14 @@
       <c r="I91" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
@@ -4408,8 +5851,14 @@
       <c r="I92" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -4437,8 +5886,14 @@
       <c r="I93" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
         <v>17</v>
       </c>
@@ -4466,8 +5921,14 @@
       <c r="I94" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
         <v>25</v>
       </c>
@@ -4495,8 +5956,14 @@
       <c r="I95" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -4524,8 +5991,14 @@
       <c r="I96" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -4553,8 +6026,14 @@
       <c r="I97" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
@@ -4582,8 +6061,14 @@
       <c r="I98" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
         <v>16</v>
       </c>
@@ -4611,8 +6096,14 @@
       <c r="I99" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -4640,8 +6131,14 @@
       <c r="I100" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
@@ -4669,8 +6166,14 @@
       <c r="I101" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -4698,8 +6201,14 @@
       <c r="I102" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
         <v>27</v>
       </c>
@@ -4727,8 +6236,14 @@
       <c r="I103" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -4756,8 +6271,14 @@
       <c r="I104" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -4785,8 +6306,14 @@
       <c r="I105" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -4814,8 +6341,14 @@
       <c r="I106" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -4843,8 +6376,14 @@
       <c r="I107" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
@@ -4872,8 +6411,14 @@
       <c r="I108" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="1" t="s">
         <v>24</v>
       </c>
@@ -4901,8 +6446,14 @@
       <c r="I109" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="1" t="s">
         <v>24</v>
       </c>
@@ -4930,8 +6481,14 @@
       <c r="I110" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -4959,8 +6516,14 @@
       <c r="I111" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
@@ -4988,8 +6551,14 @@
       <c r="I112" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
@@ -5017,8 +6586,14 @@
       <c r="I113" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -5046,8 +6621,14 @@
       <c r="I114" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="1" t="s">
         <v>24</v>
       </c>
@@ -5075,8 +6656,14 @@
       <c r="I115" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="1" t="s">
         <v>20</v>
       </c>
@@ -5104,8 +6691,14 @@
       <c r="I116" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="1" t="s">
         <v>6</v>
       </c>
@@ -5133,8 +6726,14 @@
       <c r="I117" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
@@ -5162,8 +6761,14 @@
       <c r="I118" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -5191,8 +6796,14 @@
       <c r="I119" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -5220,8 +6831,14 @@
       <c r="I120" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -5249,8 +6866,14 @@
       <c r="I121" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="1" t="s">
         <v>27</v>
       </c>
@@ -5278,8 +6901,14 @@
       <c r="I122" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="1" t="s">
         <v>20</v>
       </c>
@@ -5307,8 +6936,14 @@
       <c r="I123" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -5336,8 +6971,14 @@
       <c r="I124" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
@@ -5365,8 +7006,14 @@
       <c r="I125" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="1" t="s">
         <v>14</v>
       </c>
@@ -5394,8 +7041,14 @@
       <c r="I126" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
@@ -5423,8 +7076,14 @@
       <c r="I127" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="1" t="s">
         <v>22</v>
       </c>
@@ -5452,8 +7111,14 @@
       <c r="I128" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="1" t="s">
         <v>22</v>
       </c>
@@ -5481,8 +7146,14 @@
       <c r="I129" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
@@ -5510,8 +7181,14 @@
       <c r="I130" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="1" t="s">
         <v>25</v>
       </c>
@@ -5539,8 +7216,14 @@
       <c r="I131" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="1" t="s">
         <v>4</v>
       </c>
@@ -5568,8 +7251,14 @@
       <c r="I132" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
@@ -5597,8 +7286,14 @@
       <c r="I133" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="1" t="s">
         <v>1</v>
       </c>
@@ -5626,8 +7321,14 @@
       <c r="I134" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -5655,8 +7356,14 @@
       <c r="I135" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -5684,8 +7391,14 @@
       <c r="I136" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="1" t="s">
         <v>13</v>
       </c>
@@ -5713,8 +7426,14 @@
       <c r="I137" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -5742,8 +7461,14 @@
       <c r="I138" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="1" t="s">
         <v>12</v>
       </c>
@@ -5771,8 +7496,14 @@
       <c r="I139" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="1" t="s">
         <v>1</v>
       </c>
@@ -5800,8 +7531,14 @@
       <c r="I140" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
@@ -5829,8 +7566,14 @@
       <c r="I141" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -5858,8 +7601,14 @@
       <c r="I142" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
@@ -5887,8 +7636,14 @@
       <c r="I143" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="J143" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="1" t="s">
         <v>1</v>
       </c>
@@ -5916,8 +7671,14 @@
       <c r="I144" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="1" t="s">
         <v>3</v>
       </c>
@@ -5945,8 +7706,14 @@
       <c r="I145" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -5974,8 +7741,14 @@
       <c r="I146" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="1" t="s">
         <v>7</v>
       </c>
@@ -6003,8 +7776,14 @@
       <c r="I147" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="J147" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -6032,8 +7811,14 @@
       <c r="I148" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="J148" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="1" t="s">
         <v>1</v>
       </c>
@@ -6061,8 +7846,14 @@
       <c r="I149" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="1" t="s">
         <v>20</v>
       </c>
@@ -6090,8 +7881,14 @@
       <c r="I150" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="1" t="s">
         <v>433</v>
       </c>
@@ -6119,8 +7916,14 @@
       <c r="I151" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="J151" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="1" t="s">
         <v>9</v>
       </c>
@@ -6148,8 +7951,14 @@
       <c r="I152" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="J152" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="1" t="s">
         <v>9</v>
       </c>
@@ -6177,8 +7986,14 @@
       <c r="I153" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="J153" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="1" t="s">
         <v>1</v>
       </c>
@@ -6206,8 +8021,14 @@
       <c r="I154" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -6235,8 +8056,14 @@
       <c r="I155" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="J155" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="1" t="s">
         <v>24</v>
       </c>
@@ -6264,8 +8091,14 @@
       <c r="I156" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="1" t="s">
         <v>1</v>
       </c>
@@ -6293,8 +8126,14 @@
       <c r="I157" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="J157" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="1" t="s">
         <v>434</v>
       </c>
@@ -6322,8 +8161,14 @@
       <c r="I158" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="J158" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
@@ -6351,8 +8196,14 @@
       <c r="I159" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="1" t="s">
         <v>3</v>
       </c>
@@ -6380,8 +8231,14 @@
       <c r="I160" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="J160" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -6409,8 +8266,14 @@
       <c r="I161" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="J161" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="1" t="s">
         <v>20</v>
       </c>
@@ -6438,8 +8301,14 @@
       <c r="I162" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="J162" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="1" t="s">
         <v>6</v>
       </c>
@@ -6467,8 +8336,14 @@
       <c r="I163" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="J163" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
@@ -6496,8 +8371,14 @@
       <c r="I164" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="J164" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="1" t="s">
         <v>14</v>
       </c>
@@ -6525,8 +8406,14 @@
       <c r="I165" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
@@ -6554,8 +8441,14 @@
       <c r="I166" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="J166" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="1" t="s">
         <v>14</v>
       </c>
@@ -6583,8 +8476,14 @@
       <c r="I167" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="J167" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="1" t="s">
         <v>6</v>
       </c>
@@ -6612,8 +8511,14 @@
       <c r="I168" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="J168" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="K168" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="1" t="s">
         <v>14</v>
       </c>
@@ -6641,8 +8546,14 @@
       <c r="I169" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="J169" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="1" t="s">
         <v>2</v>
       </c>
@@ -6670,8 +8581,14 @@
       <c r="I170" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="J170" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="1" t="s">
         <v>7</v>
       </c>
@@ -6699,8 +8616,14 @@
       <c r="I171" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="J171" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="1" t="s">
         <v>20</v>
       </c>
@@ -6728,8 +8651,14 @@
       <c r="I172" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="J172" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="1" t="s">
         <v>1</v>
       </c>
@@ -6757,8 +8686,14 @@
       <c r="I173" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -6786,8 +8721,14 @@
       <c r="I174" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="1" t="s">
         <v>8</v>
       </c>
@@ -6815,8 +8756,14 @@
       <c r="I175" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="1" t="s">
         <v>8</v>
       </c>
@@ -6844,8 +8791,14 @@
       <c r="I176" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
@@ -6873,8 +8826,14 @@
       <c r="I177" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -6902,8 +8861,14 @@
       <c r="I178" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="J178" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="1" t="s">
         <v>435</v>
       </c>
@@ -6931,8 +8896,14 @@
       <c r="I179" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="1" t="s">
         <v>14</v>
       </c>
@@ -6960,8 +8931,14 @@
       <c r="I180" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="1" t="s">
         <v>1</v>
       </c>
@@ -6989,8 +8966,14 @@
       <c r="I181" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="J181" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="1" t="s">
         <v>1</v>
       </c>
@@ -7018,8 +9001,14 @@
       <c r="I182" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -7047,8 +9036,14 @@
       <c r="I183" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="J183" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
@@ -7076,8 +9071,14 @@
       <c r="I184" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="J184" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -7105,8 +9106,14 @@
       <c r="I185" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="J185" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="1" t="s">
         <v>436</v>
       </c>
@@ -7134,8 +9141,14 @@
       <c r="I186" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="J186" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="1" t="s">
         <v>434</v>
       </c>
@@ -7163,8 +9176,14 @@
       <c r="I187" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="J187" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="1" t="s">
         <v>14</v>
       </c>
@@ -7192,8 +9211,14 @@
       <c r="I188" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="J188" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="1" t="s">
         <v>1</v>
       </c>
@@ -7221,8 +9246,14 @@
       <c r="I189" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="J189" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="1" t="s">
         <v>16</v>
       </c>
@@ -7250,8 +9281,14 @@
       <c r="I190" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="1" t="s">
         <v>1</v>
       </c>
@@ -7279,8 +9316,14 @@
       <c r="I191" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="J191" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
@@ -7308,8 +9351,14 @@
       <c r="I192" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="J192" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="1" t="s">
         <v>9</v>
       </c>
@@ -7337,8 +9386,14 @@
       <c r="I193" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="J193" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="1" t="s">
         <v>11</v>
       </c>
@@ -7366,8 +9421,14 @@
       <c r="I194" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="1" t="s">
         <v>1</v>
       </c>
@@ -7395,8 +9456,14 @@
       <c r="I195" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="1" t="s">
         <v>17</v>
       </c>
@@ -7424,8 +9491,14 @@
       <c r="I196" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="J196" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="K196" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="1" t="s">
         <v>18</v>
       </c>
@@ -7453,8 +9526,14 @@
       <c r="I197" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="J197" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="1" t="s">
         <v>3</v>
       </c>
@@ -7482,8 +9561,14 @@
       <c r="I198" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="J198" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K198" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="1" t="s">
         <v>7</v>
       </c>
@@ -7511,8 +9596,14 @@
       <c r="I199" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="J199" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K199" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="1" t="s">
         <v>8</v>
       </c>
@@ -7540,8 +9631,14 @@
       <c r="I200" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="J200" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="K200" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
@@ -7569,8 +9666,14 @@
       <c r="I201" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="J201" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="1" t="s">
         <v>1</v>
       </c>
@@ -7598,8 +9701,14 @@
       <c r="I202" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="J202" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="K202" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="1" t="s">
         <v>20</v>
       </c>
@@ -7627,8 +9736,14 @@
       <c r="I203" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="J203" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="K203" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -7656,8 +9771,14 @@
       <c r="I204" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="J204" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="K204" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="1" t="s">
         <v>17</v>
       </c>
@@ -7685,8 +9806,14 @@
       <c r="I205" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="J205" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="K205" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
@@ -7713,6 +9840,12 @@
       </c>
       <c r="I206" s="1" t="s">
         <v>399</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="K206" s="4" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
